--- a/data/trans_orig/IP1001-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1001-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6617DDF7-97B1-4DCC-A8A8-78FE5C8E2AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EE2EB7E-2D06-47D7-B1A4-08376B968FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{38A0031F-9E90-45B5-AC7E-387D6BCC3F83}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D481918C-71C6-4A2B-9E6C-E6747312A7BC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,12 +68,105 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>97,2%</t>
   </si>
   <si>
@@ -101,9 +194,6 @@
     <t>98,4%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>2,8%</t>
   </si>
   <si>
@@ -131,58 +221,61 @@
     <t>4,13%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -242,99 +335,6 @@
     <t>5,81%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
     <t>96,22%</t>
   </si>
   <si>
@@ -386,6 +386,90 @@
     <t>Menores según si padecen asma en 2012 (Tasa respuesta: 99,33%)</t>
   </si>
   <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
     <t>97,12%</t>
   </si>
   <si>
@@ -410,9 +494,6 @@
     <t>96,52%</t>
   </si>
   <si>
-    <t>98,77%</t>
-  </si>
-  <si>
     <t>2,88%</t>
   </si>
   <si>
@@ -434,58 +515,61 @@
     <t>2,24%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
     <t>3,48%</t>
   </si>
   <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
   </si>
   <si>
     <t>95,91%</t>
@@ -536,90 +620,6 @@
     <t>4,56%</t>
   </si>
   <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
     <t>96,14%</t>
   </si>
   <si>
@@ -665,6 +665,90 @@
     <t>Menores según si padecen asma en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
     <t>94,76%</t>
   </si>
   <si>
@@ -701,58 +785,52 @@
     <t>2,43%</t>
   </si>
   <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
   </si>
   <si>
     <t>97,09%</t>
@@ -764,9 +842,6 @@
     <t>98,64%</t>
   </si>
   <si>
-    <t>98,55%</t>
-  </si>
-  <si>
     <t>96,57%</t>
   </si>
   <si>
@@ -785,9 +860,6 @@
     <t>5,44%</t>
   </si>
   <si>
-    <t>1,45%</t>
-  </si>
-  <si>
     <t>3,43%</t>
   </si>
   <si>
@@ -797,78 +869,6 @@
     <t>3,71%</t>
   </si>
   <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
     <t>97,42%</t>
   </si>
   <si>
@@ -908,6 +908,66 @@
     <t>Menores según si padecen asma en 2023 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
     <t>95,58%</t>
   </si>
   <si>
@@ -956,46 +1016,28 @@
     <t>5,68%</t>
   </si>
   <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
   </si>
   <si>
     <t>97,29%</t>
@@ -1044,48 +1086,6 @@
   </si>
   <si>
     <t>3,8%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
   </si>
   <si>
     <t>96,6%</t>
@@ -1519,7 +1519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA515E0-B0DB-4948-956D-E2D2CF290B59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66ACFD56-147D-4561-AE2E-A4AB72553F62}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1637,10 +1637,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>313</v>
+        <v>33</v>
       </c>
       <c r="D4" s="7">
-        <v>206198</v>
+        <v>25444</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1652,10 +1652,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>304</v>
+        <v>28</v>
       </c>
       <c r="I4" s="7">
-        <v>190225</v>
+        <v>21918</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1664,73 +1664,73 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="7">
+        <v>61</v>
+      </c>
+      <c r="N4" s="7">
+        <v>47362</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>617</v>
-      </c>
-      <c r="N4" s="7">
-        <v>396423</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>9</v>
-      </c>
-      <c r="D5" s="7">
-        <v>5944</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>806</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>8</v>
-      </c>
-      <c r="I5" s="7">
-        <v>4938</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>806</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>17</v>
-      </c>
-      <c r="N5" s="7">
-        <v>10882</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1739,54 +1739,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>322</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>212142</v>
+        <v>25444</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>312</v>
+        <v>29</v>
       </c>
       <c r="I6" s="7">
-        <v>195163</v>
+        <v>22724</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>634</v>
+        <v>62</v>
       </c>
       <c r="N6" s="7">
-        <v>407305</v>
+        <v>48168</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1798,13 +1798,13 @@
         <v>126253</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>172</v>
@@ -1813,13 +1813,13 @@
         <v>114582</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
         <v>363</v>
@@ -1828,19 +1828,19 @@
         <v>240835</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>2</v>
@@ -1849,13 +1849,13 @@
         <v>1380</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -1864,13 +1864,13 @@
         <v>1420</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -1879,13 +1879,13 @@
         <v>2800</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1900,13 +1900,13 @@
         <v>127633</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>174</v>
@@ -1915,13 +1915,13 @@
         <v>116002</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>367</v>
@@ -1930,117 +1930,117 @@
         <v>243635</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="D10" s="7">
-        <v>198776</v>
+        <v>206198</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="7">
+        <v>304</v>
+      </c>
+      <c r="I10" s="7">
+        <v>190225</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" s="7">
+        <v>617</v>
+      </c>
+      <c r="N10" s="7">
+        <v>396423</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="7">
-        <v>265</v>
-      </c>
-      <c r="I10" s="7">
-        <v>202291</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M10" s="7">
-        <v>558</v>
-      </c>
-      <c r="N10" s="7">
-        <v>401067</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D11" s="7">
-        <v>9048</v>
+        <v>5944</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="7">
+        <v>8</v>
+      </c>
+      <c r="I11" s="7">
+        <v>4938</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" s="7">
+        <v>17</v>
+      </c>
+      <c r="N11" s="7">
+        <v>10882</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="7">
-        <v>9</v>
-      </c>
-      <c r="I11" s="7">
-        <v>7024</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M11" s="7">
-        <v>22</v>
-      </c>
-      <c r="N11" s="7">
-        <v>16072</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2049,150 +2049,150 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="D12" s="7">
-        <v>207824</v>
+        <v>212142</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="I12" s="7">
-        <v>209315</v>
+        <v>195163</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>580</v>
+        <v>634</v>
       </c>
       <c r="N12" s="7">
-        <v>417139</v>
+        <v>407305</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>33</v>
+        <v>227</v>
       </c>
       <c r="D13" s="7">
-        <v>25444</v>
+        <v>146753</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="7">
+        <v>218</v>
+      </c>
+      <c r="I13" s="7">
+        <v>131469</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M13" s="7">
+        <v>445</v>
+      </c>
+      <c r="N13" s="7">
+        <v>278222</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="7">
-        <v>28</v>
-      </c>
-      <c r="I13" s="7">
-        <v>21918</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M13" s="7">
-        <v>61</v>
-      </c>
-      <c r="N13" s="7">
-        <v>47362</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>2904</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="7">
+        <v>11</v>
+      </c>
+      <c r="I14" s="7">
+        <v>6348</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>806</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>16</v>
+      </c>
+      <c r="N14" s="7">
+        <v>9252</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>806</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>78</v>
@@ -2204,49 +2204,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="D15" s="7">
-        <v>25444</v>
+        <v>149657</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="I15" s="7">
-        <v>22724</v>
+        <v>137817</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>62</v>
+        <v>461</v>
       </c>
       <c r="N15" s="7">
-        <v>48168</v>
+        <v>287474</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2257,10 +2257,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>227</v>
+        <v>293</v>
       </c>
       <c r="D16" s="7">
-        <v>146753</v>
+        <v>198776</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>80</v>
@@ -2272,10 +2272,10 @@
         <v>82</v>
       </c>
       <c r="H16" s="7">
-        <v>218</v>
+        <v>265</v>
       </c>
       <c r="I16" s="7">
-        <v>131469</v>
+        <v>202291</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>83</v>
@@ -2287,10 +2287,10 @@
         <v>85</v>
       </c>
       <c r="M16" s="7">
-        <v>445</v>
+        <v>558</v>
       </c>
       <c r="N16" s="7">
-        <v>278222</v>
+        <v>401067</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>86</v>
@@ -2305,13 +2305,13 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D17" s="7">
-        <v>2904</v>
+        <v>9048</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>89</v>
@@ -2323,10 +2323,10 @@
         <v>91</v>
       </c>
       <c r="H17" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I17" s="7">
-        <v>6348</v>
+        <v>7024</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>92</v>
@@ -2338,10 +2338,10 @@
         <v>94</v>
       </c>
       <c r="M17" s="7">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N17" s="7">
-        <v>9252</v>
+        <v>16072</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>95</v>
@@ -2359,49 +2359,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="D18" s="7">
-        <v>149657</v>
+        <v>207824</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="I18" s="7">
-        <v>137817</v>
+        <v>209315</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N18" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2418,7 +2418,7 @@
         <v>703423</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>98</v>
@@ -2460,7 +2460,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>29</v>
@@ -2469,7 +2469,7 @@
         <v>19277</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>106</v>
@@ -2520,13 +2520,13 @@
         <v>722700</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -2535,13 +2535,13 @@
         <v>681021</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>2104</v>
@@ -2550,13 +2550,13 @@
         <v>1403721</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2577,7 +2577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F268E25-4DFA-4C08-9489-C87382E5E730}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAB2CF9-4ADF-4FD4-8578-436E108C6CB0}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2695,100 +2695,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>313</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7">
-        <v>216178</v>
+        <v>25455</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>24</v>
+      </c>
+      <c r="I4" s="7">
+        <v>20718</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H4" s="7">
-        <v>312</v>
-      </c>
-      <c r="I4" s="7">
-        <v>202211</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="7">
+        <v>52</v>
+      </c>
+      <c r="N4" s="7">
+        <v>46173</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="M4" s="7">
-        <v>625</v>
-      </c>
-      <c r="N4" s="7">
-        <v>418389</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>122</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>9</v>
-      </c>
-      <c r="D5" s="7">
-        <v>6415</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1655</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M5" s="7">
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1655</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H5" s="7">
-        <v>5</v>
-      </c>
-      <c r="I5" s="7">
-        <v>3187</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="M5" s="7">
-        <v>14</v>
-      </c>
-      <c r="N5" s="7">
-        <v>9602</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2797,54 +2797,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>322</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7">
-        <v>222593</v>
+        <v>25455</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>317</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7">
-        <v>205398</v>
+        <v>22373</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>639</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>427991</v>
+        <v>47828</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2856,13 +2856,13 @@
         <v>124951</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="H7" s="7">
         <v>154</v>
@@ -2871,13 +2871,13 @@
         <v>110135</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="M7" s="7">
         <v>331</v>
@@ -2886,19 +2886,19 @@
         <v>235086</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>4</v>
@@ -2907,13 +2907,13 @@
         <v>2692</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -2922,13 +2922,13 @@
         <v>3883</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -2937,13 +2937,13 @@
         <v>6575</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2958,13 +2958,13 @@
         <v>127643</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>159</v>
@@ -2973,13 +2973,13 @@
         <v>114018</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>340</v>
@@ -2988,117 +2988,117 @@
         <v>241661</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>270</v>
+        <v>313</v>
       </c>
       <c r="D10" s="7">
-        <v>198622</v>
+        <v>216178</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H10" s="7">
+        <v>312</v>
+      </c>
+      <c r="I10" s="7">
+        <v>202211</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M10" s="7">
+        <v>625</v>
+      </c>
+      <c r="N10" s="7">
+        <v>418389</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H10" s="7">
-        <v>271</v>
-      </c>
-      <c r="I10" s="7">
-        <v>207332</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="M10" s="7">
-        <v>541</v>
-      </c>
-      <c r="N10" s="7">
-        <v>405955</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>156</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>19</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D11" s="7">
-        <v>8460</v>
+        <v>6415</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H11" s="7">
+        <v>5</v>
+      </c>
+      <c r="I11" s="7">
+        <v>3187</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="M11" s="7">
+        <v>14</v>
+      </c>
+      <c r="N11" s="7">
+        <v>9602</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="P11" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="H11" s="7">
-        <v>4</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2968</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="M11" s="7">
-        <v>15</v>
-      </c>
-      <c r="N11" s="7">
-        <v>11427</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3107,153 +3107,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>281</v>
+        <v>322</v>
       </c>
       <c r="D12" s="7">
-        <v>207082</v>
+        <v>222593</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="I12" s="7">
-        <v>210300</v>
+        <v>205398</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>556</v>
+        <v>639</v>
       </c>
       <c r="N12" s="7">
-        <v>417382</v>
+        <v>427991</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>28</v>
+        <v>251</v>
       </c>
       <c r="D13" s="7">
-        <v>25455</v>
+        <v>163538</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>34</v>
+        <v>159</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H13" s="7">
+        <v>238</v>
+      </c>
+      <c r="I13" s="7">
+        <v>153084</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="M13" s="7">
+        <v>489</v>
+      </c>
+      <c r="N13" s="7">
+        <v>316622</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="7">
-        <v>24</v>
-      </c>
-      <c r="I13" s="7">
-        <v>20718</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M13" s="7">
-        <v>52</v>
-      </c>
-      <c r="N13" s="7">
-        <v>46173</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>2447</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>170</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I14" s="7">
-        <v>1655</v>
+        <v>1755</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>171</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>41</v>
+        <v>172</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M14" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N14" s="7">
-        <v>1655</v>
+        <v>4202</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3262,49 +3262,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="D15" s="7">
-        <v>25455</v>
+        <v>165985</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>26</v>
+        <v>241</v>
       </c>
       <c r="I15" s="7">
-        <v>22373</v>
+        <v>154839</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>496</v>
       </c>
       <c r="N15" s="7">
-        <v>47828</v>
+        <v>320824</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3315,97 +3315,97 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="D16" s="7">
-        <v>163538</v>
+        <v>198622</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H16" s="7">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="I16" s="7">
-        <v>153084</v>
+        <v>207332</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M16" s="7">
-        <v>489</v>
+        <v>541</v>
       </c>
       <c r="N16" s="7">
-        <v>316622</v>
+        <v>405955</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>183</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
+        <v>11</v>
+      </c>
+      <c r="D17" s="7">
+        <v>8460</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H17" s="7">
         <v>4</v>
       </c>
-      <c r="D17" s="7">
-        <v>2447</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H17" s="7">
-        <v>3</v>
-      </c>
       <c r="I17" s="7">
-        <v>1755</v>
+        <v>2968</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M17" s="7">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N17" s="7">
-        <v>4202</v>
+        <v>11427</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>191</v>
+        <v>58</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>192</v>
@@ -3417,49 +3417,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="D18" s="7">
-        <v>165985</v>
+        <v>207082</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="I18" s="7">
-        <v>154839</v>
+        <v>210300</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="N18" s="7">
-        <v>320824</v>
+        <v>417382</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,7 +3476,7 @@
         <v>728745</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>193</v>
@@ -3494,7 +3494,7 @@
         <v>195</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>196</v>
@@ -3518,7 +3518,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>28</v>
@@ -3527,7 +3527,7 @@
         <v>20013</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>200</v>
@@ -3548,7 +3548,7 @@
         <v>203</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="M20" s="7">
         <v>47</v>
@@ -3578,13 +3578,13 @@
         <v>748758</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -3593,13 +3593,13 @@
         <v>706928</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>2085</v>
@@ -3608,13 +3608,13 @@
         <v>1455686</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3635,7 +3635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0010A8F4-C2A6-4A8C-924F-659B47BE70DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CEB4920-39AC-4A1D-9B4B-6D420BD87BA9}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3753,100 +3753,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>321</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>217416</v>
+        <v>25574</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>198</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>208</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>23</v>
+      </c>
+      <c r="I4" s="7">
+        <v>21497</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="H4" s="7">
-        <v>321</v>
-      </c>
-      <c r="I4" s="7">
-        <v>198918</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="7">
+        <v>53</v>
+      </c>
+      <c r="N4" s="7">
+        <v>47071</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="M4" s="7">
-        <v>642</v>
-      </c>
-      <c r="N4" s="7">
-        <v>416335</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>87</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>213</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>11</v>
-      </c>
-      <c r="D5" s="7">
-        <v>6943</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1030</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="H5" s="7">
-        <v>13</v>
-      </c>
-      <c r="I5" s="7">
-        <v>8329</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1030</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="M5" s="7">
-        <v>24</v>
-      </c>
-      <c r="N5" s="7">
-        <v>15271</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3855,54 +3855,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7">
-        <v>224359</v>
+        <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>334</v>
+        <v>24</v>
       </c>
       <c r="I6" s="7">
-        <v>207247</v>
+        <v>22527</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>666</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>431606</v>
+        <v>48101</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3914,13 +3914,13 @@
         <v>119542</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H7" s="7">
         <v>160</v>
@@ -3929,13 +3929,13 @@
         <v>109100</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M7" s="7">
         <v>321</v>
@@ -3944,19 +3944,19 @@
         <v>228642</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>4</v>
@@ -3965,13 +3965,13 @@
         <v>2960</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -3980,13 +3980,13 @@
         <v>2080</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -3995,13 +3995,13 @@
         <v>5040</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4016,13 +4016,13 @@
         <v>122502</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>163</v>
@@ -4031,13 +4031,13 @@
         <v>111180</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>328</v>
@@ -4046,117 +4046,117 @@
         <v>233682</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>282</v>
+        <v>321</v>
       </c>
       <c r="D10" s="7">
-        <v>199755</v>
+        <v>217416</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H10" s="7">
+        <v>321</v>
+      </c>
+      <c r="I10" s="7">
+        <v>198918</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="L10" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M10" s="7">
+        <v>642</v>
+      </c>
+      <c r="N10" s="7">
+        <v>416335</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="H10" s="7">
-        <v>277</v>
-      </c>
-      <c r="I10" s="7">
-        <v>204419</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="M10" s="7">
-        <v>559</v>
-      </c>
-      <c r="N10" s="7">
-        <v>404175</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D11" s="7">
-        <v>5981</v>
+        <v>6943</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H11" s="7">
+        <v>13</v>
+      </c>
+      <c r="I11" s="7">
+        <v>8329</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>24</v>
+      </c>
+      <c r="N11" s="7">
+        <v>15271</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="H11" s="7">
-        <v>4</v>
-      </c>
-      <c r="I11" s="7">
-        <v>3001</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="M11" s="7">
-        <v>12</v>
-      </c>
-      <c r="N11" s="7">
-        <v>8981</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>251</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,153 +4165,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="D12" s="7">
-        <v>205736</v>
+        <v>224359</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="I12" s="7">
-        <v>207420</v>
+        <v>207247</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>571</v>
+        <v>666</v>
       </c>
       <c r="N12" s="7">
-        <v>413156</v>
+        <v>431606</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>30</v>
+        <v>243</v>
       </c>
       <c r="D13" s="7">
-        <v>25574</v>
+        <v>163303</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>34</v>
+        <v>248</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H13" s="7">
+        <v>257</v>
+      </c>
+      <c r="I13" s="7">
+        <v>154676</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="7">
-        <v>23</v>
-      </c>
-      <c r="I13" s="7">
-        <v>21497</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" s="7">
+        <v>500</v>
+      </c>
+      <c r="N13" s="7">
+        <v>317979</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M13" s="7">
-        <v>53</v>
-      </c>
-      <c r="N13" s="7">
-        <v>47071</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>3370</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>41</v>
+        <v>256</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>73</v>
+        <v>257</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>1030</v>
+        <v>1321</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N14" s="7">
-        <v>1030</v>
+        <v>4691</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>41</v>
+        <v>262</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4320,49 +4320,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="D15" s="7">
-        <v>25574</v>
+        <v>166673</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="I15" s="7">
-        <v>22527</v>
+        <v>155997</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>507</v>
       </c>
       <c r="N15" s="7">
-        <v>48101</v>
+        <v>322670</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,97 +4373,97 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>243</v>
+        <v>282</v>
       </c>
       <c r="D16" s="7">
-        <v>163303</v>
+        <v>199755</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H16" s="7">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="I16" s="7">
-        <v>154676</v>
+        <v>204419</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="M16" s="7">
-        <v>500</v>
+        <v>559</v>
       </c>
       <c r="N16" s="7">
-        <v>317979</v>
+        <v>404175</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>268</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D17" s="7">
-        <v>3370</v>
+        <v>5981</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>1321</v>
+        <v>3001</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>273</v>
       </c>
       <c r="M17" s="7">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N17" s="7">
-        <v>4691</v>
+        <v>8981</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>274</v>
+        <v>36</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>275</v>
@@ -4475,49 +4475,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="D18" s="7">
-        <v>166673</v>
+        <v>205736</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="I18" s="7">
-        <v>155997</v>
+        <v>207420</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N18" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4549,13 +4549,13 @@
         <v>688610</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>279</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="M19" s="7">
         <v>2075</v>
@@ -4564,7 +4564,7 @@
         <v>1414201</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>280</v>
@@ -4576,7 +4576,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>28</v>
@@ -4600,10 +4600,10 @@
         <v>15761</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>285</v>
@@ -4615,7 +4615,7 @@
         <v>35014</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>286</v>
@@ -4636,13 +4636,13 @@
         <v>744844</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>1061</v>
@@ -4651,13 +4651,13 @@
         <v>704371</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>2126</v>
@@ -4666,13 +4666,13 @@
         <v>1449215</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -4693,7 +4693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9D90FC-5B63-4735-832A-EE2490AE0FBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD052EF-4E51-47BF-8251-75098407FC7A}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4811,10 +4811,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>329</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>239120</v>
+        <v>12184</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>289</v>
@@ -4823,88 +4823,88 @@
         <v>290</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>274</v>
+        <v>28</v>
       </c>
       <c r="I4" s="7">
-        <v>187596</v>
+        <v>16787</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>46</v>
+      </c>
+      <c r="N4" s="7">
+        <v>28971</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="M4" s="7">
-        <v>603</v>
-      </c>
-      <c r="N4" s="7">
-        <v>426716</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>295</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>296</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>514</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>14</v>
-      </c>
-      <c r="D5" s="7">
-        <v>11066</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="H5" s="7">
-        <v>6</v>
-      </c>
-      <c r="I5" s="7">
-        <v>4756</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>300</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>301</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>15822</v>
+        <v>514</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>302</v>
+        <v>93</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>303</v>
+        <v>19</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4913,54 +4913,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>343</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7">
-        <v>250186</v>
+        <v>12698</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>280</v>
+        <v>28</v>
       </c>
       <c r="I6" s="7">
-        <v>192352</v>
+        <v>16787</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>623</v>
+        <v>47</v>
       </c>
       <c r="N6" s="7">
-        <v>442538</v>
+        <v>29485</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4972,13 +4972,13 @@
         <v>112842</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>165</v>
@@ -4987,13 +4987,13 @@
         <v>101629</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="M7" s="7">
         <v>314</v>
@@ -5002,19 +5002,19 @@
         <v>214470</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>3</v>
@@ -5023,13 +5023,13 @@
         <v>1754</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -5038,13 +5038,13 @@
         <v>2266</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -5053,13 +5053,13 @@
         <v>4020</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5074,13 +5074,13 @@
         <v>114596</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>168</v>
@@ -5089,13 +5089,13 @@
         <v>103895</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>320</v>
@@ -5104,117 +5104,117 @@
         <v>218490</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>232</v>
+        <v>329</v>
       </c>
       <c r="D10" s="7">
-        <v>170273</v>
+        <v>239120</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>321</v>
+        <v>131</v>
       </c>
       <c r="H10" s="7">
-        <v>236</v>
+        <v>274</v>
       </c>
       <c r="I10" s="7">
-        <v>169098</v>
+        <v>187596</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>209</v>
+        <v>311</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="M10" s="7">
-        <v>468</v>
+        <v>603</v>
       </c>
       <c r="N10" s="7">
-        <v>339370</v>
+        <v>426716</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="7">
+        <v>14</v>
+      </c>
+      <c r="D11" s="7">
+        <v>11066</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H11" s="7">
+        <v>6</v>
+      </c>
+      <c r="I11" s="7">
+        <v>4756</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="M11" s="7">
         <v>20</v>
       </c>
-      <c r="C11" s="7">
-        <v>6</v>
-      </c>
-      <c r="D11" s="7">
-        <v>4743</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="H11" s="7">
-        <v>4</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2845</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="M11" s="7">
-        <v>10</v>
-      </c>
       <c r="N11" s="7">
-        <v>7588</v>
+        <v>15822</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,153 +5223,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>238</v>
+        <v>343</v>
       </c>
       <c r="D12" s="7">
-        <v>175016</v>
+        <v>250186</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="I12" s="7">
-        <v>171943</v>
+        <v>192352</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>478</v>
+        <v>623</v>
       </c>
       <c r="N12" s="7">
-        <v>346958</v>
+        <v>442538</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>18</v>
+        <v>219</v>
       </c>
       <c r="D13" s="7">
-        <v>12184</v>
+        <v>166597</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="H13" s="7">
-        <v>28</v>
+        <v>220</v>
       </c>
       <c r="I13" s="7">
-        <v>16787</v>
+        <v>163525</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>34</v>
+        <v>252</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>165</v>
+        <v>327</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>30</v>
+        <v>328</v>
       </c>
       <c r="M13" s="7">
-        <v>46</v>
+        <v>439</v>
       </c>
       <c r="N13" s="7">
-        <v>28971</v>
+        <v>330123</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>337</v>
+        <v>84</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D14" s="7">
-        <v>514</v>
+        <v>6611</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>4377</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>41</v>
+        <v>260</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>73</v>
+        <v>331</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>170</v>
+        <v>332</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="N14" s="7">
-        <v>514</v>
+        <v>10987</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>340</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5378,49 +5378,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>19</v>
+        <v>225</v>
       </c>
       <c r="D15" s="7">
-        <v>12698</v>
+        <v>173208</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>28</v>
+        <v>226</v>
       </c>
       <c r="I15" s="7">
-        <v>16787</v>
+        <v>167902</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>47</v>
+        <v>451</v>
       </c>
       <c r="N15" s="7">
-        <v>29485</v>
+        <v>341110</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5431,100 +5431,100 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="D16" s="7">
-        <v>166597</v>
+        <v>170273</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>118</v>
+        <v>335</v>
       </c>
       <c r="H16" s="7">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="I16" s="7">
-        <v>163525</v>
+        <v>169098</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="M16" s="7">
-        <v>439</v>
+        <v>468</v>
       </c>
       <c r="N16" s="7">
-        <v>330123</v>
+        <v>339370</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>86</v>
+        <v>338</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>53</v>
+        <v>339</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>54</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
         <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>6611</v>
+        <v>4743</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="H17" s="7">
+        <v>4</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2845</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>10</v>
+      </c>
+      <c r="N17" s="7">
+        <v>7588</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="H17" s="7">
-        <v>6</v>
-      </c>
-      <c r="I17" s="7">
-        <v>4377</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="K17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="M17" s="7">
-        <v>12</v>
-      </c>
-      <c r="N17" s="7">
-        <v>10987</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5533,49 +5533,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="D18" s="7">
-        <v>173208</v>
+        <v>175016</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="I18" s="7">
-        <v>167902</v>
+        <v>171943</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>451</v>
+        <v>478</v>
       </c>
       <c r="N18" s="7">
-        <v>341110</v>
+        <v>346958</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5607,7 +5607,7 @@
         <v>638636</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>352</v>
@@ -5634,7 +5634,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>30</v>
@@ -5658,7 +5658,7 @@
         <v>14243</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>359</v>
@@ -5694,13 +5694,13 @@
         <v>725704</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>942</v>
@@ -5709,13 +5709,13 @@
         <v>652879</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>1919</v>
@@ -5724,13 +5724,13 @@
         <v>1378583</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1001-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1001-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EE2EB7E-2D06-47D7-B1A4-08376B968FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14805B9B-A860-4BD9-A4CB-2DD359B574F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D481918C-71C6-4A2B-9E6C-E6747312A7BC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{04984DE1-31B7-45BE-B80B-2579509F7083}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="364">
   <si>
     <t>Menores según si padecen asma en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -71,6 +71,30 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -86,1048 +110,1027 @@
     <t>96,45%</t>
   </si>
   <si>
-    <t>77,17%</t>
+    <t>82,2%</t>
   </si>
   <si>
     <t>98,33%</t>
   </si>
   <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
+    <t>90,66%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
     <t>98,92%</t>
   </si>
   <si>
-    <t>96,55%</t>
+    <t>96,29%</t>
   </si>
   <si>
     <t>98,78%</t>
   </si>
   <si>
-    <t>96,0%</t>
+    <t>95,71%</t>
   </si>
   <si>
     <t>98,85%</t>
   </si>
   <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
     <t>97,2%</t>
   </si>
   <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
   </si>
   <si>
     <t>97,47%</t>
   </si>
   <si>
-    <t>95,19%</t>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen asma en 2012 (Tasa respuesta: 99,33%)</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
   </si>
   <si>
     <t>98,79%</t>
   </si>
   <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen asma en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen asma en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
   </si>
   <si>
     <t>94,62%</t>
   </si>
   <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen asma en 2012 (Tasa respuesta: 99,33%)</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
   </si>
   <si>
     <t>96,61%</t>
   </si>
   <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen asma en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen asma en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
     <t>97,18%</t>
   </si>
   <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
   </si>
 </sst>
 </file>
@@ -1138,7 +1141,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1234,39 +1237,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1318,7 +1321,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1429,13 +1432,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1444,6 +1440,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1508,19 +1511,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66ACFD56-147D-4561-AE2E-A4AB72553F62}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B355CD0-68AB-4CB1-B5DE-B411DBEE3864}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1637,10 +1660,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25444</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1652,34 +1675,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>21918</v>
+        <v>806</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M4" s="7">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>47362</v>
+        <v>806</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1688,10 +1711,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25444</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1703,34 +1726,34 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="I5" s="7">
-        <v>806</v>
+        <v>21918</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="N5" s="7">
-        <v>806</v>
+        <v>47362</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1745,13 +1768,13 @@
         <v>25444</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
         <v>29</v>
@@ -1760,13 +1783,13 @@
         <v>22724</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
         <v>62</v>
@@ -1775,13 +1798,13 @@
         <v>48168</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1792,40 +1815,40 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>191</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>126253</v>
+        <v>1380</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H7" s="7">
-        <v>172</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>114582</v>
+        <v>1420</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>29</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M7" s="7">
-        <v>363</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>240835</v>
+        <v>2800</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>31</v>
@@ -1843,40 +1866,40 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>191</v>
       </c>
       <c r="D8" s="7">
-        <v>1380</v>
+        <v>126253</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>34</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>172</v>
       </c>
       <c r="I8" s="7">
-        <v>1420</v>
+        <v>114582</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>36</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>363</v>
       </c>
       <c r="N8" s="7">
-        <v>2800</v>
+        <v>240835</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>38</v>
@@ -1900,13 +1923,13 @@
         <v>127633</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
         <v>174</v>
@@ -1915,13 +1938,13 @@
         <v>116002</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
         <v>367</v>
@@ -1930,13 +1953,13 @@
         <v>243635</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1947,10 +1970,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>313</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>206198</v>
+        <v>5944</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>42</v>
@@ -1962,10 +1985,10 @@
         <v>44</v>
       </c>
       <c r="H10" s="7">
-        <v>304</v>
+        <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>190225</v>
+        <v>4938</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>45</v>
@@ -1977,10 +2000,10 @@
         <v>47</v>
       </c>
       <c r="M10" s="7">
-        <v>617</v>
+        <v>17</v>
       </c>
       <c r="N10" s="7">
-        <v>396423</v>
+        <v>10882</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>48</v>
@@ -1998,10 +2021,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>9</v>
+        <v>313</v>
       </c>
       <c r="D11" s="7">
-        <v>5944</v>
+        <v>206198</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>51</v>
@@ -2013,10 +2036,10 @@
         <v>53</v>
       </c>
       <c r="H11" s="7">
-        <v>8</v>
+        <v>304</v>
       </c>
       <c r="I11" s="7">
-        <v>4938</v>
+        <v>190225</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>54</v>
@@ -2028,10 +2051,10 @@
         <v>56</v>
       </c>
       <c r="M11" s="7">
-        <v>17</v>
+        <v>617</v>
       </c>
       <c r="N11" s="7">
-        <v>10882</v>
+        <v>396423</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>57</v>
@@ -2055,13 +2078,13 @@
         <v>212142</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
         <v>312</v>
@@ -2070,13 +2093,13 @@
         <v>195163</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
         <v>634</v>
@@ -2085,13 +2108,13 @@
         <v>407305</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2102,10 +2125,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>227</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>146753</v>
+        <v>2904</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>61</v>
@@ -2117,10 +2140,10 @@
         <v>63</v>
       </c>
       <c r="H13" s="7">
-        <v>218</v>
+        <v>11</v>
       </c>
       <c r="I13" s="7">
-        <v>131469</v>
+        <v>6348</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>64</v>
@@ -2132,10 +2155,10 @@
         <v>66</v>
       </c>
       <c r="M13" s="7">
-        <v>445</v>
+        <v>16</v>
       </c>
       <c r="N13" s="7">
-        <v>278222</v>
+        <v>9252</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>67</v>
@@ -2153,10 +2176,10 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>5</v>
+        <v>227</v>
       </c>
       <c r="D14" s="7">
-        <v>2904</v>
+        <v>146753</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>70</v>
@@ -2168,10 +2191,10 @@
         <v>72</v>
       </c>
       <c r="H14" s="7">
-        <v>11</v>
+        <v>218</v>
       </c>
       <c r="I14" s="7">
-        <v>6348</v>
+        <v>131469</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>73</v>
@@ -2183,10 +2206,10 @@
         <v>75</v>
       </c>
       <c r="M14" s="7">
-        <v>16</v>
+        <v>445</v>
       </c>
       <c r="N14" s="7">
-        <v>9252</v>
+        <v>278222</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>76</v>
@@ -2210,13 +2233,13 @@
         <v>149657</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
         <v>229</v>
@@ -2225,13 +2248,13 @@
         <v>137817</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
         <v>461</v>
@@ -2240,13 +2263,13 @@
         <v>287474</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2257,10 +2280,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>293</v>
+        <v>13</v>
       </c>
       <c r="D16" s="7">
-        <v>198776</v>
+        <v>9048</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>80</v>
@@ -2272,10 +2295,10 @@
         <v>82</v>
       </c>
       <c r="H16" s="7">
-        <v>265</v>
+        <v>9</v>
       </c>
       <c r="I16" s="7">
-        <v>202291</v>
+        <v>7024</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>83</v>
@@ -2287,19 +2310,19 @@
         <v>85</v>
       </c>
       <c r="M16" s="7">
-        <v>558</v>
+        <v>22</v>
       </c>
       <c r="N16" s="7">
-        <v>401067</v>
+        <v>16072</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>86</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2308,49 +2331,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="D17" s="7">
-        <v>9048</v>
+        <v>198776</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>265</v>
+      </c>
+      <c r="I17" s="7">
+        <v>202291</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H17" s="7">
-        <v>9</v>
-      </c>
-      <c r="I17" s="7">
-        <v>7024</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>558</v>
+      </c>
+      <c r="N17" s="7">
+        <v>401067</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M17" s="7">
-        <v>22</v>
-      </c>
-      <c r="N17" s="7">
-        <v>16072</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2365,13 +2388,13 @@
         <v>207824</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
         <v>274</v>
@@ -2380,13 +2403,13 @@
         <v>209315</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
         <v>580</v>
@@ -2395,13 +2418,13 @@
         <v>417139</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2412,49 +2435,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1057</v>
+        <v>29</v>
       </c>
       <c r="D19" s="7">
-        <v>703423</v>
+        <v>19277</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>48</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" s="7">
+        <v>31</v>
+      </c>
+      <c r="I19" s="7">
+        <v>20535</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H19" s="7">
-        <v>987</v>
-      </c>
-      <c r="I19" s="7">
-        <v>660486</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>60</v>
+      </c>
+      <c r="N19" s="7">
+        <v>39811</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="M19" s="7">
-        <v>2044</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1363910</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2463,49 +2486,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>29</v>
+        <v>1057</v>
       </c>
       <c r="D20" s="7">
-        <v>19277</v>
+        <v>703423</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>57</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H20" s="7">
+        <v>987</v>
+      </c>
+      <c r="I20" s="7">
+        <v>660486</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H20" s="7">
-        <v>31</v>
-      </c>
-      <c r="I20" s="7">
-        <v>20535</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>2044</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1363910</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="M20" s="7">
-        <v>60</v>
-      </c>
-      <c r="N20" s="7">
-        <v>39811</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2520,13 +2543,13 @@
         <v>722700</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -2535,13 +2558,13 @@
         <v>681021</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M21" s="7">
         <v>2104</v>
@@ -2550,13 +2573,18 @@
         <v>1403721</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2577,8 +2605,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAB2CF9-4ADF-4FD4-8578-436E108C6CB0}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3649D8C9-0082-443A-9CAF-13E58290FBA4}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2594,7 +2622,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2695,49 +2723,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25455</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="7">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1655</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>24</v>
-      </c>
-      <c r="I4" s="7">
-        <v>20718</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1655</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="7">
-        <v>52</v>
-      </c>
-      <c r="N4" s="7">
-        <v>46173</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2746,49 +2774,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25455</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="7">
+        <v>24</v>
+      </c>
+      <c r="I5" s="7">
+        <v>20718</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1655</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>52</v>
+      </c>
+      <c r="N5" s="7">
+        <v>46173</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="M5" s="7">
-        <v>2</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1655</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2803,13 +2831,13 @@
         <v>25455</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
         <v>26</v>
@@ -2818,13 +2846,13 @@
         <v>22373</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -2833,13 +2861,13 @@
         <v>47828</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2850,49 +2878,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>177</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>124951</v>
+        <v>2692</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>5</v>
+      </c>
+      <c r="I7" s="7">
+        <v>3883</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H7" s="7">
-        <v>154</v>
-      </c>
-      <c r="I7" s="7">
-        <v>110135</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>9</v>
+      </c>
+      <c r="N7" s="7">
+        <v>6575</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="M7" s="7">
-        <v>331</v>
-      </c>
-      <c r="N7" s="7">
-        <v>235086</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2901,49 +2929,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>177</v>
       </c>
       <c r="D8" s="7">
-        <v>2692</v>
+        <v>124951</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>154</v>
+      </c>
+      <c r="I8" s="7">
+        <v>110135</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="H8" s="7">
-        <v>5</v>
-      </c>
-      <c r="I8" s="7">
-        <v>3883</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>331</v>
+      </c>
+      <c r="N8" s="7">
+        <v>235086</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="M8" s="7">
-        <v>9</v>
-      </c>
-      <c r="N8" s="7">
-        <v>6575</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2958,13 +2986,13 @@
         <v>127643</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
         <v>159</v>
@@ -2973,13 +3001,13 @@
         <v>114018</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
         <v>340</v>
@@ -2988,13 +3016,13 @@
         <v>241661</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,49 +3033,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>313</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>216178</v>
+        <v>6415</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>5</v>
+      </c>
+      <c r="I10" s="7">
+        <v>3187</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H10" s="7">
-        <v>312</v>
-      </c>
-      <c r="I10" s="7">
-        <v>202211</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" s="7">
+        <v>14</v>
+      </c>
+      <c r="N10" s="7">
+        <v>9602</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="M10" s="7">
-        <v>625</v>
-      </c>
-      <c r="N10" s="7">
-        <v>418389</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3056,49 +3084,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>9</v>
+        <v>313</v>
       </c>
       <c r="D11" s="7">
-        <v>6415</v>
+        <v>216178</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>312</v>
+      </c>
+      <c r="I11" s="7">
+        <v>202211</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H11" s="7">
-        <v>5</v>
-      </c>
-      <c r="I11" s="7">
-        <v>3187</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>625</v>
+      </c>
+      <c r="N11" s="7">
+        <v>418389</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="M11" s="7">
-        <v>14</v>
-      </c>
-      <c r="N11" s="7">
-        <v>9602</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,13 +3141,13 @@
         <v>222593</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
         <v>317</v>
@@ -3128,13 +3156,13 @@
         <v>205398</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
         <v>639</v>
@@ -3143,13 +3171,13 @@
         <v>427991</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,49 +3188,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>251</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>163538</v>
+        <v>2447</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>3</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1755</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="H13" s="7">
-        <v>238</v>
-      </c>
-      <c r="I13" s="7">
-        <v>153084</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>7</v>
+      </c>
+      <c r="N13" s="7">
+        <v>4202</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="M13" s="7">
-        <v>489</v>
-      </c>
-      <c r="N13" s="7">
-        <v>316622</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,49 +3239,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="D14" s="7">
-        <v>2447</v>
+        <v>163538</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>238</v>
+      </c>
+      <c r="I14" s="7">
+        <v>153084</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="H14" s="7">
-        <v>3</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1755</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>489</v>
+      </c>
+      <c r="N14" s="7">
+        <v>316622</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="M14" s="7">
-        <v>7</v>
-      </c>
-      <c r="N14" s="7">
-        <v>4202</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3268,13 +3296,13 @@
         <v>165985</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
         <v>241</v>
@@ -3283,13 +3311,13 @@
         <v>154839</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
         <v>496</v>
@@ -3298,13 +3326,13 @@
         <v>320824</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3315,49 +3343,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>270</v>
+        <v>11</v>
       </c>
       <c r="D16" s="7">
-        <v>198622</v>
+        <v>8460</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>4</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2968</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="H16" s="7">
-        <v>271</v>
-      </c>
-      <c r="I16" s="7">
-        <v>207332</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="M16" s="7">
+        <v>15</v>
+      </c>
+      <c r="N16" s="7">
+        <v>11427</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="M16" s="7">
-        <v>541</v>
-      </c>
-      <c r="N16" s="7">
-        <v>405955</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,49 +3394,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>11</v>
+        <v>270</v>
       </c>
       <c r="D17" s="7">
-        <v>8460</v>
+        <v>198622</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>271</v>
+      </c>
+      <c r="I17" s="7">
+        <v>207332</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="H17" s="7">
-        <v>4</v>
-      </c>
-      <c r="I17" s="7">
-        <v>2968</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>541</v>
+      </c>
+      <c r="N17" s="7">
+        <v>405955</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="M17" s="7">
-        <v>15</v>
-      </c>
-      <c r="N17" s="7">
-        <v>11427</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>192</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3423,13 +3451,13 @@
         <v>207082</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
         <v>275</v>
@@ -3438,13 +3466,13 @@
         <v>210300</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
         <v>556</v>
@@ -3453,13 +3481,13 @@
         <v>417382</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,49 +3498,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1039</v>
+        <v>28</v>
       </c>
       <c r="D19" s="7">
-        <v>728745</v>
+        <v>20013</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>48</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H19" s="7">
+        <v>19</v>
+      </c>
+      <c r="I19" s="7">
+        <v>13448</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>47</v>
+      </c>
+      <c r="N19" s="7">
+        <v>33461</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="H19" s="7">
-        <v>999</v>
-      </c>
-      <c r="I19" s="7">
-        <v>693480</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2038</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1422225</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3521,49 +3549,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>28</v>
+        <v>1039</v>
       </c>
       <c r="D20" s="7">
-        <v>20013</v>
+        <v>728745</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>57</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H20" s="7">
+        <v>999</v>
+      </c>
+      <c r="I20" s="7">
+        <v>693480</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>2038</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1422225</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="H20" s="7">
-        <v>19</v>
-      </c>
-      <c r="I20" s="7">
-        <v>13448</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="M20" s="7">
-        <v>47</v>
-      </c>
-      <c r="N20" s="7">
-        <v>33461</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3578,13 +3606,13 @@
         <v>748758</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -3593,13 +3621,13 @@
         <v>706928</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M21" s="7">
         <v>2085</v>
@@ -3608,13 +3636,18 @@
         <v>1455686</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3635,8 +3668,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CEB4920-39AC-4A1D-9B4B-6D420BD87BA9}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D1F7E6-9118-47C2-97BD-A05F2B4CB769}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3652,7 +3685,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3753,49 +3786,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25574</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1030</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1030</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>23</v>
-      </c>
-      <c r="I4" s="7">
-        <v>21497</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="7">
-        <v>53</v>
-      </c>
-      <c r="N4" s="7">
-        <v>47071</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3804,49 +3837,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25574</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="7">
+        <v>23</v>
+      </c>
+      <c r="I5" s="7">
+        <v>21497</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7">
+        <v>53</v>
+      </c>
+      <c r="N5" s="7">
+        <v>47071</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1030</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1030</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,13 +3894,13 @@
         <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
         <v>24</v>
@@ -3876,13 +3909,13 @@
         <v>22527</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -3891,13 +3924,13 @@
         <v>48101</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,49 +3941,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>161</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>119542</v>
+        <v>2960</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H7" s="7">
+        <v>3</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2080</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="K7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>7</v>
+      </c>
+      <c r="N7" s="7">
+        <v>5040</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="H7" s="7">
-        <v>160</v>
-      </c>
-      <c r="I7" s="7">
-        <v>109100</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="M7" s="7">
-        <v>321</v>
-      </c>
-      <c r="N7" s="7">
-        <v>228642</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3959,49 +3992,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>161</v>
       </c>
       <c r="D8" s="7">
-        <v>2960</v>
+        <v>119542</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H8" s="7">
+        <v>160</v>
+      </c>
+      <c r="I8" s="7">
+        <v>109100</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="L8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M8" s="7">
+        <v>321</v>
+      </c>
+      <c r="N8" s="7">
+        <v>228642</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="H8" s="7">
-        <v>3</v>
-      </c>
-      <c r="I8" s="7">
-        <v>2080</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="M8" s="7">
-        <v>7</v>
-      </c>
-      <c r="N8" s="7">
-        <v>5040</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4016,13 +4049,13 @@
         <v>122502</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
         <v>163</v>
@@ -4031,13 +4064,13 @@
         <v>111180</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
         <v>328</v>
@@ -4046,13 +4079,13 @@
         <v>233682</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4063,49 +4096,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>321</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>217416</v>
+        <v>6943</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H10" s="7">
+        <v>13</v>
+      </c>
+      <c r="I10" s="7">
+        <v>8329</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="M10" s="7">
+        <v>24</v>
+      </c>
+      <c r="N10" s="7">
+        <v>15271</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="H10" s="7">
-        <v>321</v>
-      </c>
-      <c r="I10" s="7">
-        <v>198918</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="M10" s="7">
-        <v>642</v>
-      </c>
-      <c r="N10" s="7">
-        <v>416335</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4114,49 +4147,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>11</v>
+        <v>321</v>
       </c>
       <c r="D11" s="7">
-        <v>6943</v>
+        <v>217416</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H11" s="7">
+        <v>321</v>
+      </c>
+      <c r="I11" s="7">
+        <v>198918</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" s="7">
+        <v>642</v>
+      </c>
+      <c r="N11" s="7">
+        <v>416335</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="H11" s="7">
-        <v>13</v>
-      </c>
-      <c r="I11" s="7">
-        <v>8329</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="M11" s="7">
-        <v>24</v>
-      </c>
-      <c r="N11" s="7">
-        <v>15271</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4171,13 +4204,13 @@
         <v>224359</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
         <v>334</v>
@@ -4186,13 +4219,13 @@
         <v>207247</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
         <v>666</v>
@@ -4201,13 +4234,13 @@
         <v>431606</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,49 +4251,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>243</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>163303</v>
+        <v>3370</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1321</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>7</v>
+      </c>
+      <c r="N13" s="7">
+        <v>4691</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="H13" s="7">
-        <v>257</v>
-      </c>
-      <c r="I13" s="7">
-        <v>154676</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M13" s="7">
-        <v>500</v>
-      </c>
-      <c r="N13" s="7">
-        <v>317979</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,49 +4302,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>5</v>
+        <v>243</v>
       </c>
       <c r="D14" s="7">
-        <v>3370</v>
+        <v>163303</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H14" s="7">
+        <v>257</v>
+      </c>
+      <c r="I14" s="7">
+        <v>154676</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="7">
+        <v>500</v>
+      </c>
+      <c r="N14" s="7">
+        <v>317979</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1321</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="M14" s="7">
-        <v>7</v>
-      </c>
-      <c r="N14" s="7">
-        <v>4691</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4326,13 +4359,13 @@
         <v>166673</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
         <v>259</v>
@@ -4341,13 +4374,13 @@
         <v>155997</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
         <v>507</v>
@@ -4356,13 +4389,13 @@
         <v>322670</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,49 +4406,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>282</v>
+        <v>8</v>
       </c>
       <c r="D16" s="7">
-        <v>199755</v>
+        <v>5981</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H16" s="7">
+        <v>4</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3001</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="M16" s="7">
+        <v>12</v>
+      </c>
+      <c r="N16" s="7">
+        <v>8981</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="H16" s="7">
-        <v>277</v>
-      </c>
-      <c r="I16" s="7">
-        <v>204419</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="M16" s="7">
-        <v>559</v>
-      </c>
-      <c r="N16" s="7">
-        <v>404175</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4424,49 +4457,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>8</v>
+        <v>282</v>
       </c>
       <c r="D17" s="7">
-        <v>5981</v>
+        <v>199755</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H17" s="7">
+        <v>277</v>
+      </c>
+      <c r="I17" s="7">
+        <v>204419</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="M17" s="7">
+        <v>559</v>
+      </c>
+      <c r="N17" s="7">
+        <v>404175</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="H17" s="7">
-        <v>4</v>
-      </c>
-      <c r="I17" s="7">
-        <v>3001</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="M17" s="7">
-        <v>12</v>
-      </c>
-      <c r="N17" s="7">
-        <v>8981</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4481,13 +4514,13 @@
         <v>205736</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
         <v>281</v>
@@ -4496,13 +4529,13 @@
         <v>207420</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
         <v>571</v>
@@ -4511,13 +4544,13 @@
         <v>413156</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4528,49 +4561,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1037</v>
+        <v>28</v>
       </c>
       <c r="D19" s="7">
-        <v>725591</v>
+        <v>19253</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H19" s="7">
+        <v>23</v>
+      </c>
+      <c r="I19" s="7">
+        <v>15761</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="M19" s="7">
+        <v>51</v>
+      </c>
+      <c r="N19" s="7">
+        <v>35014</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1038</v>
-      </c>
-      <c r="I19" s="7">
-        <v>688610</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2075</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1414201</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4579,49 +4612,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>28</v>
+        <v>1037</v>
       </c>
       <c r="D20" s="7">
-        <v>19253</v>
+        <v>725591</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1038</v>
+      </c>
+      <c r="I20" s="7">
+        <v>688610</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>2075</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1414201</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="H20" s="7">
-        <v>23</v>
-      </c>
-      <c r="I20" s="7">
-        <v>15761</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="M20" s="7">
-        <v>51</v>
-      </c>
-      <c r="N20" s="7">
-        <v>35014</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4636,13 +4669,13 @@
         <v>744844</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H21" s="7">
         <v>1061</v>
@@ -4651,13 +4684,13 @@
         <v>704371</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M21" s="7">
         <v>2126</v>
@@ -4666,13 +4699,18 @@
         <v>1449215</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -4693,8 +4731,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD052EF-4E51-47BF-8251-75098407FC7A}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B2CE93D-C7F2-46C4-ADA6-87529FAD3B0E}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4710,7 +4748,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4811,49 +4849,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>12184</v>
+        <v>514</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>290</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>287</v>
       </c>
       <c r="H4" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>16787</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="M4" s="7">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>28971</v>
+        <v>514</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>85</v>
+        <v>288</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>291</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4862,49 +4900,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D5" s="7">
-        <v>514</v>
+        <v>12184</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>293</v>
-      </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>16787</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="N5" s="7">
-        <v>514</v>
+        <v>28971</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>93</v>
+        <v>292</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4919,13 +4957,13 @@
         <v>12698</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
         <v>28</v>
@@ -4934,13 +4972,13 @@
         <v>16787</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
         <v>47</v>
@@ -4949,13 +4987,13 @@
         <v>29485</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4966,43 +5004,43 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>149</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>112842</v>
+        <v>1754</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>3</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2266</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="H7" s="7">
-        <v>165</v>
-      </c>
-      <c r="I7" s="7">
-        <v>101629</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>6</v>
+      </c>
+      <c r="N7" s="7">
+        <v>4020</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="M7" s="7">
-        <v>314</v>
-      </c>
-      <c r="N7" s="7">
-        <v>214470</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>300</v>
@@ -5017,25 +5055,25 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="D8" s="7">
-        <v>1754</v>
+        <v>112842</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>302</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>189</v>
+        <v>303</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>303</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="I8" s="7">
-        <v>2266</v>
+        <v>101629</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>304</v>
@@ -5047,19 +5085,19 @@
         <v>306</v>
       </c>
       <c r="M8" s="7">
-        <v>6</v>
+        <v>314</v>
       </c>
       <c r="N8" s="7">
-        <v>4020</v>
+        <v>214470</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>77</v>
+        <v>307</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5074,13 +5112,13 @@
         <v>114596</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
         <v>168</v>
@@ -5089,13 +5127,13 @@
         <v>103895</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
         <v>320</v>
@@ -5104,13 +5142,13 @@
         <v>218490</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5121,49 +5159,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>329</v>
+        <v>14</v>
       </c>
       <c r="D10" s="7">
-        <v>239120</v>
+        <v>11066</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>131</v>
+        <v>312</v>
       </c>
       <c r="H10" s="7">
-        <v>274</v>
+        <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>187596</v>
+        <v>4756</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M10" s="7">
-        <v>603</v>
+        <v>20</v>
       </c>
       <c r="N10" s="7">
-        <v>426716</v>
+        <v>15822</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>314</v>
+        <v>265</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5172,49 +5210,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>14</v>
+        <v>329</v>
       </c>
       <c r="D11" s="7">
-        <v>11066</v>
+        <v>239120</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>140</v>
+        <v>319</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H11" s="7">
-        <v>6</v>
+        <v>274</v>
       </c>
       <c r="I11" s="7">
-        <v>4756</v>
+        <v>187596</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M11" s="7">
-        <v>20</v>
+        <v>603</v>
       </c>
       <c r="N11" s="7">
-        <v>15822</v>
+        <v>426716</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>322</v>
+        <v>269</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,13 +5267,13 @@
         <v>250186</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
         <v>280</v>
@@ -5244,13 +5282,13 @@
         <v>192352</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
         <v>623</v>
@@ -5259,13 +5297,13 @@
         <v>442538</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5276,49 +5314,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>219</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>166597</v>
+        <v>6611</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>326</v>
+        <v>131</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>146</v>
+        <v>327</v>
       </c>
       <c r="H13" s="7">
-        <v>220</v>
+        <v>6</v>
       </c>
       <c r="I13" s="7">
-        <v>163525</v>
+        <v>4377</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>252</v>
+        <v>328</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M13" s="7">
-        <v>439</v>
+        <v>12</v>
       </c>
       <c r="N13" s="7">
-        <v>330123</v>
+        <v>10987</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>67</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>84</v>
+        <v>232</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5327,49 +5365,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>6</v>
+        <v>219</v>
       </c>
       <c r="D14" s="7">
-        <v>6611</v>
+        <v>166597</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>154</v>
+        <v>333</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>330</v>
+        <v>141</v>
       </c>
       <c r="H14" s="7">
-        <v>6</v>
+        <v>220</v>
       </c>
       <c r="I14" s="7">
-        <v>4377</v>
+        <v>163525</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>260</v>
+        <v>334</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="M14" s="7">
-        <v>12</v>
+        <v>439</v>
       </c>
       <c r="N14" s="7">
-        <v>10987</v>
+        <v>330123</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>337</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,13 +5422,13 @@
         <v>173208</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
         <v>226</v>
@@ -5399,13 +5437,13 @@
         <v>167902</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
         <v>451</v>
@@ -5414,13 +5452,13 @@
         <v>341110</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5431,49 +5469,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>232</v>
+        <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>170273</v>
+        <v>4743</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="H16" s="7">
-        <v>236</v>
+        <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>169098</v>
+        <v>2845</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>237</v>
+        <v>341</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="M16" s="7">
-        <v>468</v>
+        <v>10</v>
       </c>
       <c r="N16" s="7">
-        <v>339370</v>
+        <v>7588</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>338</v>
+        <v>102</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>340</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5482,49 +5520,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>232</v>
       </c>
       <c r="D17" s="7">
-        <v>4743</v>
+        <v>170273</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="H17" s="7">
-        <v>4</v>
+        <v>236</v>
       </c>
       <c r="I17" s="7">
-        <v>2845</v>
+        <v>169098</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>242</v>
+        <v>348</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="M17" s="7">
-        <v>10</v>
+        <v>468</v>
       </c>
       <c r="N17" s="7">
-        <v>7588</v>
+        <v>339370</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>346</v>
+        <v>111</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>347</v>
+        <v>156</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5539,13 +5577,13 @@
         <v>175016</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
         <v>240</v>
@@ -5554,13 +5592,13 @@
         <v>171943</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
         <v>478</v>
@@ -5569,13 +5607,13 @@
         <v>346958</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5586,49 +5624,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>947</v>
+        <v>30</v>
       </c>
       <c r="D19" s="7">
-        <v>701016</v>
+        <v>24688</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>349</v>
+        <v>160</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H19" s="7">
-        <v>923</v>
+        <v>19</v>
       </c>
       <c r="I19" s="7">
-        <v>638636</v>
+        <v>14243</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>352</v>
+        <v>164</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M19" s="7">
-        <v>1870</v>
+        <v>49</v>
       </c>
       <c r="N19" s="7">
-        <v>1339652</v>
+        <v>38931</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>102</v>
+        <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5637,49 +5675,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>30</v>
+        <v>947</v>
       </c>
       <c r="D20" s="7">
-        <v>24688</v>
+        <v>701016</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>356</v>
+        <v>168</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H20" s="7">
-        <v>19</v>
+        <v>923</v>
       </c>
       <c r="I20" s="7">
-        <v>14243</v>
+        <v>638636</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>304</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>360</v>
+        <v>173</v>
       </c>
       <c r="M20" s="7">
-        <v>49</v>
+        <v>1870</v>
       </c>
       <c r="N20" s="7">
-        <v>38931</v>
+        <v>1339652</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>361</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>109</v>
+        <v>362</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5694,13 +5732,13 @@
         <v>725704</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H21" s="7">
         <v>942</v>
@@ -5709,13 +5747,13 @@
         <v>652879</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M21" s="7">
         <v>1919</v>
@@ -5724,13 +5762,18 @@
         <v>1378583</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1001-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1001-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14805B9B-A860-4BD9-A4CB-2DD359B574F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E376004-E9C0-4CEC-B109-BB3D1FB35B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{04984DE1-31B7-45BE-B80B-2579509F7083}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{30BE8EFF-DD21-4187-A179-BB83489A8DE0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="352">
   <si>
     <t>Menores según si padecen asma en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -86,13 +86,13 @@
     <t>3,55%</t>
   </si>
   <si>
-    <t>17,8%</t>
+    <t>18,34%</t>
   </si>
   <si>
     <t>1,67%</t>
   </si>
   <si>
-    <t>9,34%</t>
+    <t>9,51%</t>
   </si>
   <si>
     <t>No</t>
@@ -110,28 +110,28 @@
     <t>96,45%</t>
   </si>
   <si>
-    <t>82,2%</t>
+    <t>81,66%</t>
   </si>
   <si>
     <t>98,33%</t>
   </si>
   <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>1,08%</t>
   </si>
   <si>
-    <t>3,71%</t>
+    <t>3,8%</t>
   </si>
   <si>
     <t>1,22%</t>
   </si>
   <si>
-    <t>4,29%</t>
+    <t>3,7%</t>
   </si>
   <si>
     <t>1,15%</t>
@@ -140,997 +140,961 @@
     <t>0,29%</t>
   </si>
   <si>
-    <t>2,63%</t>
+    <t>2,82%</t>
   </si>
   <si>
     <t>98,92%</t>
   </si>
   <si>
-    <t>96,29%</t>
+    <t>96,2%</t>
   </si>
   <si>
     <t>98,78%</t>
   </si>
   <si>
-    <t>95,71%</t>
+    <t>96,3%</t>
   </si>
   <si>
     <t>98,85%</t>
   </si>
   <si>
-    <t>97,37%</t>
+    <t>97,18%</t>
   </si>
   <si>
     <t>99,71%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>2,8%</t>
   </si>
   <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
   </si>
   <si>
     <t>2,53%</t>
   </si>
   <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen asma en 2012 (Tasa respuesta: 99,33%)</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
     <t>1,2%</t>
   </si>
   <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
   </si>
   <si>
     <t>98,8%</t>
   </si>
   <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen asma en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
   </si>
   <si>
     <t>4,02%</t>
   </si>
   <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
   </si>
   <si>
     <t>95,98%</t>
   </si>
   <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen asma en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
   </si>
   <si>
     <t>2,19%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
   </si>
   <si>
     <t>97,81%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen asma en 2012 (Tasa respuesta: 99,33%)</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
   </si>
   <si>
     <t>3,4%</t>
   </si>
   <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
   </si>
   <si>
     <t>96,6%</t>
   </si>
   <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
   </si>
   <si>
     <t>96,21%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen asma en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen asma en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
   </si>
 </sst>
 </file>
@@ -1542,7 +1506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B355CD0-68AB-4CB1-B5DE-B411DBEE3864}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491E804E-EE12-485F-9228-E006393A3564}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2289,10 +2253,10 @@
         <v>80</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -2301,13 +2265,13 @@
         <v>7024</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -2316,13 +2280,13 @@
         <v>16072</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2337,13 +2301,13 @@
         <v>198776</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="H17" s="7">
         <v>265</v>
@@ -2352,13 +2316,13 @@
         <v>202291</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="M17" s="7">
         <v>558</v>
@@ -2367,13 +2331,13 @@
         <v>401067</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2444,10 +2408,10 @@
         <v>48</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H19" s="7">
         <v>31</v>
@@ -2456,13 +2420,13 @@
         <v>20535</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M19" s="7">
         <v>60</v>
@@ -2471,13 +2435,13 @@
         <v>39811</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2495,10 +2459,10 @@
         <v>57</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="H20" s="7">
         <v>987</v>
@@ -2507,13 +2471,13 @@
         <v>660486</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M20" s="7">
         <v>2044</v>
@@ -2522,13 +2486,13 @@
         <v>1363910</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2584,7 +2548,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2605,7 +2569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3649D8C9-0082-443A-9CAF-13E58290FBA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C216409-3107-4573-9B49-918EAE8AE645}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2622,7 +2586,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2735,7 +2699,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -2744,13 +2708,13 @@
         <v>1655</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -2759,13 +2723,13 @@
         <v>1655</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,7 +2747,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -2795,10 +2759,10 @@
         <v>20718</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2810,10 +2774,10 @@
         <v>46173</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2884,13 +2848,13 @@
         <v>2692</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -2899,13 +2863,13 @@
         <v>3883</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -2914,13 +2878,13 @@
         <v>6575</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2935,13 +2899,13 @@
         <v>124951</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H8" s="7">
         <v>154</v>
@@ -2950,13 +2914,13 @@
         <v>110135</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M8" s="7">
         <v>331</v>
@@ -2965,13 +2929,13 @@
         <v>235086</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3039,13 +3003,13 @@
         <v>6415</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -3054,13 +3018,13 @@
         <v>3187</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -3069,13 +3033,13 @@
         <v>9602</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3090,13 +3054,13 @@
         <v>216178</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>152</v>
+        <v>53</v>
       </c>
       <c r="H11" s="7">
         <v>312</v>
@@ -3105,13 +3069,13 @@
         <v>202211</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M11" s="7">
         <v>625</v>
@@ -3120,13 +3084,13 @@
         <v>418389</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3194,13 +3158,13 @@
         <v>2447</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>158</v>
+        <v>43</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3209,13 +3173,13 @@
         <v>1755</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>162</v>
+        <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -3224,13 +3188,13 @@
         <v>4202</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3245,13 +3209,13 @@
         <v>163538</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>167</v>
+        <v>53</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="H14" s="7">
         <v>238</v>
@@ -3260,13 +3224,13 @@
         <v>153084</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>172</v>
+        <v>40</v>
       </c>
       <c r="M14" s="7">
         <v>489</v>
@@ -3275,13 +3239,13 @@
         <v>316622</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3349,13 +3313,13 @@
         <v>8460</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3364,13 +3328,13 @@
         <v>2968</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -3379,13 +3343,13 @@
         <v>11427</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3400,13 +3364,13 @@
         <v>198622</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="H17" s="7">
         <v>271</v>
@@ -3415,13 +3379,13 @@
         <v>207332</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="M17" s="7">
         <v>541</v>
@@ -3430,13 +3394,13 @@
         <v>405955</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>24</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,10 +3471,10 @@
         <v>48</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>96</v>
+        <v>186</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>190</v>
+        <v>28</v>
       </c>
       <c r="H19" s="7">
         <v>19</v>
@@ -3519,13 +3483,13 @@
         <v>13448</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="M19" s="7">
         <v>47</v>
@@ -3534,13 +3498,13 @@
         <v>33461</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3558,10 +3522,10 @@
         <v>57</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>197</v>
+        <v>35</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>105</v>
+        <v>192</v>
       </c>
       <c r="H20" s="7">
         <v>999</v>
@@ -3570,13 +3534,13 @@
         <v>693480</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>200</v>
+        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>2038</v>
@@ -3585,13 +3549,13 @@
         <v>1422225</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3647,7 +3611,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3668,7 +3632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D1F7E6-9118-47C2-97BD-A05F2B4CB769}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DA8001-A35A-447E-BF93-6CF32EAB8313}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3685,7 +3649,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3798,7 +3762,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3807,13 +3771,13 @@
         <v>1030</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3822,13 +3786,13 @@
         <v>1030</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3846,7 +3810,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -3858,10 +3822,10 @@
         <v>21497</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3873,10 +3837,10 @@
         <v>47071</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3947,13 +3911,13 @@
         <v>2960</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -3962,13 +3926,13 @@
         <v>2080</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>125</v>
+        <v>213</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -3977,13 +3941,13 @@
         <v>5040</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,13 +3962,13 @@
         <v>119542</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H8" s="7">
         <v>160</v>
@@ -4013,13 +3977,13 @@
         <v>109100</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>135</v>
+        <v>223</v>
       </c>
       <c r="M8" s="7">
         <v>321</v>
@@ -4028,13 +3992,13 @@
         <v>228642</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4102,13 +4066,13 @@
         <v>6943</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -4117,13 +4081,13 @@
         <v>8329</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>230</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -4132,13 +4096,13 @@
         <v>15271</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>236</v>
+        <v>143</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4153,13 +4117,13 @@
         <v>217416</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H11" s="7">
         <v>321</v>
@@ -4168,13 +4132,13 @@
         <v>198918</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>237</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M11" s="7">
         <v>642</v>
@@ -4183,13 +4147,13 @@
         <v>416335</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>244</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4257,13 +4221,13 @@
         <v>3370</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>247</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -4272,13 +4236,13 @@
         <v>1321</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -4287,13 +4251,13 @@
         <v>4691</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>252</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4308,13 +4272,13 @@
         <v>163303</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>254</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="H14" s="7">
         <v>257</v>
@@ -4323,10 +4287,10 @@
         <v>154676</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -4338,13 +4302,13 @@
         <v>317979</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>259</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4412,13 +4376,13 @@
         <v>5981</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>261</v>
+        <v>171</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -4427,13 +4391,13 @@
         <v>3001</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>262</v>
+        <v>84</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -4442,13 +4406,13 @@
         <v>8981</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>264</v>
+        <v>127</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4463,13 +4427,13 @@
         <v>199755</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>266</v>
+        <v>180</v>
       </c>
       <c r="H17" s="7">
         <v>277</v>
@@ -4478,13 +4442,13 @@
         <v>204419</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>267</v>
+        <v>91</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="M17" s="7">
         <v>559</v>
@@ -4493,13 +4457,13 @@
         <v>404175</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>270</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4567,13 +4531,13 @@
         <v>19253</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>272</v>
+        <v>68</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -4582,13 +4546,13 @@
         <v>15761</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="M19" s="7">
         <v>51</v>
@@ -4597,13 +4561,13 @@
         <v>35014</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4618,13 +4582,13 @@
         <v>725591</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>280</v>
+        <v>78</v>
       </c>
       <c r="H20" s="7">
         <v>1038</v>
@@ -4633,13 +4597,13 @@
         <v>688610</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="M20" s="7">
         <v>2075</v>
@@ -4648,13 +4612,13 @@
         <v>1414201</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4710,7 +4674,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -4731,7 +4695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B2CE93D-C7F2-46C4-ADA6-87529FAD3B0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53D2148-2E39-45CA-AAB8-592863D27830}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4748,7 +4712,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4855,13 +4819,13 @@
         <v>514</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4876,7 +4840,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4885,13 +4849,13 @@
         <v>514</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4906,10 +4870,10 @@
         <v>12184</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4924,7 +4888,7 @@
         <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -4936,10 +4900,10 @@
         <v>28971</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -5010,13 +4974,13 @@
         <v>1754</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>281</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -5025,13 +4989,13 @@
         <v>2266</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -5040,13 +5004,13 @@
         <v>4020</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>299</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5061,13 +5025,13 @@
         <v>112842</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>290</v>
       </c>
       <c r="H8" s="7">
         <v>165</v>
@@ -5076,13 +5040,13 @@
         <v>101629</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="M8" s="7">
         <v>314</v>
@@ -5091,13 +5055,13 @@
         <v>214470</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>307</v>
+        <v>192</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5165,13 +5129,13 @@
         <v>11066</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>311</v>
+        <v>48</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -5180,13 +5144,13 @@
         <v>4756</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -5195,13 +5159,13 @@
         <v>15822</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5216,13 +5180,13 @@
         <v>239120</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>320</v>
+        <v>57</v>
       </c>
       <c r="H11" s="7">
         <v>274</v>
@@ -5231,13 +5195,13 @@
         <v>187596</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="M11" s="7">
         <v>603</v>
@@ -5246,13 +5210,13 @@
         <v>426716</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>269</v>
+        <v>309</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5320,13 +5284,13 @@
         <v>6611</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>131</v>
+        <v>313</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -5335,13 +5299,13 @@
         <v>4377</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -5353,10 +5317,10 @@
         <v>67</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>232</v>
+        <v>318</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5371,13 +5335,13 @@
         <v>166597</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>141</v>
+        <v>322</v>
       </c>
       <c r="H14" s="7">
         <v>220</v>
@@ -5386,13 +5350,13 @@
         <v>163525</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="M14" s="7">
         <v>439</v>
@@ -5404,10 +5368,10 @@
         <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>240</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5475,13 +5439,13 @@
         <v>4743</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -5490,13 +5454,13 @@
         <v>2845</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>342</v>
+        <v>281</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -5505,13 +5469,13 @@
         <v>7588</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>102</v>
+        <v>333</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>149</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5526,13 +5490,13 @@
         <v>170273</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="H17" s="7">
         <v>236</v>
@@ -5541,13 +5505,13 @@
         <v>169098</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>350</v>
+        <v>290</v>
       </c>
       <c r="M17" s="7">
         <v>468</v>
@@ -5556,13 +5520,13 @@
         <v>339370</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>111</v>
+        <v>341</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>156</v>
+        <v>342</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5630,13 +5594,13 @@
         <v>24688</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>160</v>
+        <v>344</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="H19" s="7">
         <v>19</v>
@@ -5645,13 +5609,13 @@
         <v>14243</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>164</v>
+        <v>46</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>354</v>
+        <v>264</v>
       </c>
       <c r="M19" s="7">
         <v>49</v>
@@ -5660,13 +5624,13 @@
         <v>38931</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>355</v>
+        <v>33</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>356</v>
+        <v>169</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5681,13 +5645,13 @@
         <v>701016</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>168</v>
+        <v>348</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="H20" s="7">
         <v>923</v>
@@ -5696,13 +5660,13 @@
         <v>638636</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>360</v>
+        <v>269</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>173</v>
+        <v>56</v>
       </c>
       <c r="M20" s="7">
         <v>1870</v>
@@ -5711,13 +5675,13 @@
         <v>1339652</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>361</v>
+        <v>39</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>363</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5773,7 +5737,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
